--- a/patchr/resources/PLATES_v2.0.0/AB[BATCH_ID].3SARS.xlsx
+++ b/patchr/resources/PLATES_v2.0.0/AB[BATCH_ID].3SARS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/patchr/resources/PLATES_v2.0.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F582EA61-EE19-5B4A-B961-03F269321D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B06DE48-B5DD-464A-8A5D-DD28E1580971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="6" r:id="rId1"/>
@@ -469,9 +469,6 @@
     <t>XX</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>NEP/NS1</t>
   </si>
   <si>
@@ -644,6 +641,9 @@
   </si>
   <si>
     <t>Analysis Software Version</t>
+  </si>
+  <si>
+    <t>M:FLUA</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D39BBE7-67FA-5442-B147-F43387474561}">
   <dimension ref="A1:Z921"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>132</v>
@@ -2064,7 +2064,7 @@
         <v>115</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="42"/>
@@ -2223,7 +2223,7 @@
         <v>117</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19"/>
     </row>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="21" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="52">
         <v>0</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="26" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B26" s="58">
         <v>0</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="31" spans="1:26" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31" s="62">
         <v>100</v>
@@ -2631,7 +2631,7 @@
         <v>117</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C34"/>
       <c r="D34" s="42"/>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="36" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="52">
         <v>0</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="41" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" s="58">
         <v>0</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="46" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B46" s="65">
         <v>600</v>
@@ -3075,7 +3075,7 @@
         <v>104</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C48"/>
       <c r="D48" s="42"/>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="51" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B51" s="52">
         <v>0</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="56" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B56" s="58"/>
       <c r="C56" s="42"/>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="61" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B61" s="65"/>
       <c r="C61" s="50"/>
@@ -41846,8 +41846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41879,10 +41879,10 @@
         <v>105</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F1" s="73" t="s">
         <v>94</v>
@@ -41909,7 +41909,7 @@
         <v>130</v>
       </c>
       <c r="N1" s="74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -41961,13 +41961,13 @@
         <v>134</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="66" t="s">
         <v>74</v>
@@ -41991,13 +41991,13 @@
         <v>61</v>
       </c>
       <c r="L3" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M3" s="75" t="s">
         <v>132</v>
       </c>
       <c r="N3" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -42008,10 +42008,10 @@
         <v>101</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="66" t="s">
         <v>73</v>
@@ -42035,11 +42035,11 @@
         <v>103</v>
       </c>
       <c r="L4" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M4" s="66"/>
       <c r="N4" s="66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -42051,7 +42051,7 @@
         <v>99</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="66" t="s">
         <v>79</v>
@@ -42071,23 +42071,23 @@
         <v>69</v>
       </c>
       <c r="L5" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M5" s="66"/>
       <c r="N5" s="66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
       <c r="B6" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="66" t="s">
         <v>69</v>
@@ -42103,17 +42103,17 @@
       <c r="J6" s="66"/>
       <c r="K6" s="66"/>
       <c r="L6" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M6" s="66"/>
       <c r="N6" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
       <c r="B7" s="76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="66"/>
       <c r="D7" s="66" t="s">
@@ -42131,7 +42131,7 @@
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M7" s="66"/>
       <c r="N7" s="66" t="s">
@@ -42141,7 +42141,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
       <c r="B8" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="66" t="s">
@@ -42159,14 +42159,14 @@
       <c r="J8" s="66"/>
       <c r="K8" s="66"/>
       <c r="L8" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
       <c r="B9" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="66"/>
       <c r="D9" s="66" t="s">
@@ -42184,18 +42184,18 @@
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
       <c r="B10" s="76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="66" t="s">
@@ -42207,18 +42207,18 @@
       <c r="J10" s="66"/>
       <c r="K10" s="66"/>
       <c r="L10" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
       <c r="B11" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="66" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -42228,18 +42228,18 @@
       <c r="J11" s="66"/>
       <c r="K11" s="66"/>
       <c r="L11" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
       <c r="B12" s="66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="66"/>
       <c r="F12" s="66"/>
@@ -42249,18 +42249,18 @@
       <c r="J12" s="66"/>
       <c r="K12" s="66"/>
       <c r="L12" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M12" s="66"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
       <c r="B13" s="66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" s="66"/>
       <c r="F13" s="66"/>
@@ -42270,18 +42270,18 @@
       <c r="J13" s="66"/>
       <c r="K13" s="66"/>
       <c r="L13" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M13" s="66"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
       <c r="B14" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="66"/>
       <c r="F14" s="66"/>
@@ -42291,18 +42291,18 @@
       <c r="J14" s="66"/>
       <c r="K14" s="66"/>
       <c r="L14" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M14" s="66"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
       <c r="B15" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="66"/>
       <c r="F15" s="66"/>
@@ -42312,18 +42312,18 @@
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="L15" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
       <c r="B16" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="66"/>
       <c r="F16" s="66"/>
@@ -42333,18 +42333,18 @@
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
       <c r="B17" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E17" s="66"/>
       <c r="F17" s="66"/>
@@ -42382,7 +42382,7 @@
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
       <c r="B19" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="66" t="s">
@@ -42400,7 +42400,7 @@
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
       <c r="B20" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="66" t="s">
@@ -42418,7 +42418,7 @@
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
       <c r="B21" s="76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="66" t="s">
@@ -42437,7 +42437,7 @@
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
       <c r="B22" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="66" t="s">
@@ -42456,7 +42456,7 @@
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
       <c r="B23" s="76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="66" t="s">
@@ -42475,7 +42475,7 @@
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
       <c r="B24" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="66" t="s">
@@ -42494,7 +42494,7 @@
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
       <c r="B25" s="76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="66" t="s">
@@ -42515,7 +42515,7 @@
         <v>71</v>
       </c>
       <c r="D26" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
